--- a/src/main/resources/static/resources/download/你好世界.xlsx
+++ b/src/main/resources/static/resources/download/你好世界.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>你好世界</t>
   </si>
@@ -23,19 +23,25 @@
     <t>名称</t>
   </si>
   <si>
-    <t>规格</t>
+    <t>商品规格</t>
   </si>
   <si>
     <t>单价</t>
   </si>
   <si>
-    <t>下单数</t>
+    <t>下单数(不填默认不下单)</t>
+  </si>
+  <si>
+    <t>订单规格(不填默认商品规格)</t>
+  </si>
+  <si>
+    <t>备注(可不填)</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>白菜</t>
+    <t>娃娃菜</t>
   </si>
   <si>
     <t>斤</t>
@@ -50,31 +56,16 @@
     <t>15</t>
   </si>
   <si>
-    <t>鸡</t>
+    <t>母鸡</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>猪肉</t>
+    <t>大公鸡</t>
   </si>
   <si>
     <t>25.00</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>鱼</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>八角</t>
   </si>
 </sst>
 </file>
@@ -508,13 +499,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="0.0" customWidth="true"/>
+    <col min="5" max="5" width="20.0" customWidth="true"/>
+    <col min="6" max="6" width="25.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -524,7 +518,9 @@
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -542,95 +538,85 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
